--- a/biology/Botanique/Gamm_vert/Gamm_vert.xlsx
+++ b/biology/Botanique/Gamm_vert/Gamm_vert.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Gamm vert (pour Grande Armée Maillot Malakoff en raison de la localisation de son siège social parisien à sa création[réf. nécessaire]) est une enseigne de jardinerie, créée en 1977, spécialisée dans le libre service agricole, l'animalerie, la décoration et les produits du terroir. Elle appartient à l'union de coopératives : Union Invivo[3].
+Gamm vert (pour Grande Armée Maillot Malakoff en raison de la localisation de son siège social parisien à sa création[réf. nécessaire]) est une enseigne de jardinerie, créée en 1977, spécialisée dans le libre service agricole, l'animalerie, la décoration et les produits du terroir. Elle appartient à l'union de coopératives : Union Invivo.
 </t>
         </is>
       </c>
@@ -512,12 +524,14 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2012, Gamm vert rachète à 100 % le site de jardinerie en ligne plantes-et-jardins.com[4].[source insuffisante]
-En 2013, la société franchise 700 magasins[5].
-En mai 2016, Invivo acquiert 90 magasins Gamm vert à deux de ses franchisés, Axéréal et Terrena[6]. En octobre 2017, Invivo et Gamm vert sont en négociation pour acquérir Jardiland[7][source insuffisante].
-En 2023, l'enseigne possède plus de 1 150 magasins à travers la France[8].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2012, Gamm vert rachète à 100 % le site de jardinerie en ligne plantes-et-jardins.com.[source insuffisante]
+En 2013, la société franchise 700 magasins.
+En mai 2016, Invivo acquiert 90 magasins Gamm vert à deux de ses franchisés, Axéréal et Terrena. En octobre 2017, Invivo et Gamm vert sont en négociation pour acquérir Jardiland[source insuffisante].
+En 2023, l'enseigne possède plus de 1 150 magasins à travers la France.
 </t>
         </is>
       </c>
